--- a/outputs-r202/test-f__UBA660.xlsx
+++ b/outputs-r202/test-f__UBA660.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
   <si>
     <t>Row</t>
   </si>
@@ -328,7 +328,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -338,14 +338,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +413,7 @@
     <col min="49" max="49" width="15.5703125" customWidth="true"/>
     <col min="50" max="50" width="15.5703125" customWidth="true"/>
     <col min="51" max="51" width="15.5703125" customWidth="true"/>
-    <col min="52" max="52" width="15.5703125" customWidth="true"/>
+    <col min="52" max="52" width="15.7109375" customWidth="true"/>
     <col min="53" max="53" width="15.5703125" customWidth="true"/>
     <col min="54" max="54" width="15.5703125" customWidth="true"/>
     <col min="55" max="55" width="15.5703125" customWidth="true"/>
@@ -425,7 +429,7 @@
     <col min="65" max="65" width="15.5703125" customWidth="true"/>
     <col min="66" max="66" width="15.7109375" customWidth="true"/>
     <col min="67" max="67" width="15.5703125" customWidth="true"/>
-    <col min="68" max="68" width="15.7109375" customWidth="true"/>
+    <col min="68" max="68" width="15.5703125" customWidth="true"/>
     <col min="69" max="69" width="15.5703125" customWidth="true"/>
     <col min="70" max="70" width="15.5703125" customWidth="true"/>
     <col min="71" max="71" width="15.5703125" customWidth="true"/>
@@ -448,3156 +452,3156 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CF1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CI1" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="C2">
-        <v>2.8237427803125834e-07</v>
+        <v>8.9239189753238049e-07</v>
       </c>
       <c r="D2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="E2">
-        <v>1.7140652093040434e-07</v>
+        <v>5.8089375349748427e-05</v>
       </c>
       <c r="F2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="G2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="H2">
-        <v>1.1661706390620688e-08</v>
+        <v>2.273714622030608e-08</v>
       </c>
       <c r="I2">
-        <v>7.8648856695656631e-05</v>
+        <v>0.0006304581737446585</v>
       </c>
       <c r="J2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="K2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="L2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="M2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="N2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="O2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="P2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="Q2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="R2">
-        <v>0.9991952724739358</v>
+        <v>0.9971086574794894</v>
       </c>
       <c r="S2">
-        <v>1.1211706092046768e-05</v>
+        <v>6.5174556875589759e-05</v>
       </c>
       <c r="T2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="U2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="V2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="W2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="X2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="Y2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="Z2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AA2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AB2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AC2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AD2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AE2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AF2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AG2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AH2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AI2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AJ2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AK2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AL2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AM2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AN2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AO2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AP2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AQ2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AR2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AS2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AT2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AU2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AV2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AW2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AX2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AY2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="AZ2">
-        <v>2.6668552668733802e-13</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BA2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BB2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BC2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BD2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BE2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BF2">
-        <v>1.1015990094753143e-05</v>
+        <v>7.7311415982192681e-05</v>
       </c>
       <c r="BG2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BH2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BI2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BJ2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BK2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BL2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BM2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BN2">
-        <v>5.4272880007858208e-05</v>
+        <v>0.00037916724719611961</v>
       </c>
       <c r="BO2">
-        <v>2.8022004612857296e-13</v>
+        <v>1.9537950358412052e-12</v>
       </c>
       <c r="BP2">
-        <v>0.0006491126484783785</v>
+        <v>0.0016802266186992975</v>
       </c>
       <c r="BQ2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BR2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BS2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BT2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BU2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BV2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BW2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BX2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BY2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="BZ2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="CA2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="CB2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="CC2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="CD2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="CE2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="CF2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="CG2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="CH2">
-        <v>2.2204250779914195e-14</v>
+        <v>2.2203711718717281e-14</v>
       </c>
       <c r="CI2">
         <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="C3">
-        <v>1.8531191315009912e-05</v>
+        <v>7.0333655923752425e-05</v>
       </c>
       <c r="D3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="E3">
-        <v>0.0046070246762507988</v>
+        <v>0.027210090429180277</v>
       </c>
       <c r="F3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="G3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="H3">
-        <v>7.1937229742553314e-08</v>
+        <v>5.9586313766532291e-08</v>
       </c>
       <c r="I3">
-        <v>9.8972090466796239e-07</v>
+        <v>6.9071169919634022e-07</v>
       </c>
       <c r="J3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="K3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="L3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="M3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="N3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="O3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="P3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="Q3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="R3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="S3">
-        <v>2.3806158164722752e-12</v>
+        <v>2.8446475640493986e-13</v>
       </c>
       <c r="T3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="U3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="V3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="W3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="X3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="Y3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="Z3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AA3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AB3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AC3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AD3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AE3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AF3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AG3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AH3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AI3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AJ3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AK3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AL3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AM3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AN3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AO3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AP3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AQ3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AR3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AS3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AT3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AU3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AV3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AW3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AX3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AY3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="AZ3">
-        <v>2.2841567443158182e-09</v>
+        <v>8.8991849791125813e-09</v>
       </c>
       <c r="BA3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BB3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BC3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BD3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BE3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BF3">
-        <v>2.3303454577721983e-09</v>
+        <v>9.0368052560803136e-09</v>
       </c>
       <c r="BG3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BH3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BI3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BJ3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BK3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BL3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BM3">
-        <v>0.99537331924953354</v>
+        <v>0.97271863844350415</v>
       </c>
       <c r="BN3">
-        <v>1.0026571904165655e-08</v>
+        <v>1.4544182121555622e-08</v>
       </c>
       <c r="BO3">
-        <v>3.5844556486570711e-09</v>
+        <v>5.8984358948813275e-08</v>
       </c>
       <c r="BP3">
-        <v>4.4995212518406274e-08</v>
+        <v>9.5706920118677785e-08</v>
       </c>
       <c r="BQ3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BR3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BS3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BT3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BU3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BV3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BW3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BX3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BY3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="BZ3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="CA3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="CB3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="CC3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="CD3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="CE3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="CF3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="CG3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="CH3">
-        <v>2.2203268558563066e-14</v>
+        <v>2.2202221658600662e-14</v>
       </c>
       <c r="CI3">
         <v>64</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="C4">
-        <v>6.6231287686224352e-08</v>
+        <v>5.9236736430420995e-08</v>
       </c>
       <c r="D4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="E4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="F4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="G4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="H4">
-        <v>7.8853228043834954e-05</v>
+        <v>5.431648156209026e-05</v>
       </c>
       <c r="I4">
-        <v>2.4788056205537325e-06</v>
+        <v>1.265957899209166e-06</v>
       </c>
       <c r="J4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="K4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="L4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="M4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="N4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="O4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="P4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="Q4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="R4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="S4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="T4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="U4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="V4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="W4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="X4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="Y4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="Z4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AA4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AB4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AC4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AD4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AE4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AF4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AG4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AH4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AI4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AJ4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AK4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AL4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AM4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AN4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AO4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AP4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AQ4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AR4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AS4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AT4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AU4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AV4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AW4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AX4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AY4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="AZ4">
-        <v>7.6252419074363491e-12</v>
+        <v>2.3223577241781715e-12</v>
       </c>
       <c r="BA4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BB4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BC4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BD4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BE4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BF4">
-        <v>9.9634245577195801e-10</v>
+        <v>1.4702073456471099e-09</v>
       </c>
       <c r="BG4">
-        <v>0.99806330463375692</v>
+        <v>0.99101890059473685</v>
       </c>
       <c r="BH4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BI4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BJ4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BK4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BL4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BM4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BN4">
-        <v>7.1915414679701715e-06</v>
+        <v>7.2518126849568292e-06</v>
       </c>
       <c r="BO4">
-        <v>1.0283972998991228e-10</v>
+        <v>7.4229854367259488e-10</v>
       </c>
       <c r="BP4">
-        <v>0.0018481044513280649</v>
+        <v>0.0089182036998647785</v>
       </c>
       <c r="BQ4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BR4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BS4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BT4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BU4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BV4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BW4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BX4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BY4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="BZ4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="CA4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="CB4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="CC4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="CD4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="CE4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="CF4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="CG4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="CH4">
-        <v>2.2203957498467988e-14</v>
+        <v>2.2202709052891679e-14</v>
       </c>
       <c r="CI4">
         <v>58</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="C5">
-        <v>2.5269296227518695e-05</v>
+        <v>0.0024180651975800288</v>
       </c>
       <c r="D5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="E5">
-        <v>0.0039710923685455481</v>
+        <v>0.021172714843754454</v>
       </c>
       <c r="F5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="G5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="H5">
-        <v>4.7868343797251423e-07</v>
+        <v>1.5797852123347822e-09</v>
       </c>
       <c r="I5">
-        <v>2.101168604228201e-05</v>
+        <v>1.0718708319483798e-07</v>
       </c>
       <c r="J5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="K5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="L5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="M5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="N5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="O5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="P5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="Q5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="R5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="S5">
-        <v>9.1006199997775564e-11</v>
+        <v>9.772439197788596e-14</v>
       </c>
       <c r="T5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="U5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="V5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="W5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="X5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="Y5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="Z5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AA5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AB5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AC5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AD5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AE5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AF5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AG5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AH5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AI5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AJ5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AK5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AL5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AM5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AN5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AO5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AP5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AQ5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AR5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AS5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AT5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AU5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AV5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AW5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AX5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AY5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="AZ5">
-        <v>4.4205975094290584e-08</v>
+        <v>2.5726530609330698e-08</v>
       </c>
       <c r="BA5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BB5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BC5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BD5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BE5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BF5">
-        <v>1.1256442486374662e-09</v>
+        <v>5.2331737761583506e-07</v>
       </c>
       <c r="BG5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BH5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BI5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BJ5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BK5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BL5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BM5">
-        <v>0.9959721078089897</v>
+        <v>0.97638159294637783</v>
       </c>
       <c r="BN5">
-        <v>6.2618753655197248e-09</v>
+        <v>7.5084914214173216e-10</v>
       </c>
       <c r="BO5">
-        <v>5.8010427047391098e-08</v>
+        <v>2.1261886831326726e-05</v>
       </c>
       <c r="BP5">
-        <v>9.9304601860235376e-06</v>
+        <v>5.7065620900660491e-06</v>
       </c>
       <c r="BQ5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BR5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BS5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BT5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BU5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BV5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BW5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BX5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BY5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="BZ5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="CA5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="CB5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="CC5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="CD5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="CE5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="CF5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="CG5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="CH5">
-        <v>2.2203420942104317e-14</v>
+        <v>2.2202591965661525e-14</v>
       </c>
       <c r="CI5">
         <v>64</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="C6">
-        <v>1.7925124726321231e-09</v>
+        <v>8.1522105056907775e-10</v>
       </c>
       <c r="D6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="E6">
-        <v>4.3667161034492149e-09</v>
+        <v>1.2890425739396969e-09</v>
       </c>
       <c r="F6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="G6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="H6">
-        <v>0.0072745326169763001</v>
+        <v>0.0084996085499649595</v>
       </c>
       <c r="I6">
-        <v>0.00013460327608684193</v>
+        <v>0.00026952293701749887</v>
       </c>
       <c r="J6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="K6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="L6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="M6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="N6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="O6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="P6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="Q6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="R6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="S6">
-        <v>4.0245679914963642e-09</v>
+        <v>9.2096925568513747e-09</v>
       </c>
       <c r="T6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="U6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="V6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="W6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="X6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="Y6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="Z6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AA6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AB6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AC6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AD6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AE6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AF6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AG6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AH6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AI6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AJ6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AK6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AL6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AM6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AN6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AO6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AP6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AQ6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AR6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AS6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AT6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AU6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AV6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AW6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AX6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AY6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="AZ6">
-        <v>6.2957436329074773e-10</v>
+        <v>1.3614476592176147e-09</v>
       </c>
       <c r="BA6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BB6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BC6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BD6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BE6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BF6">
-        <v>1.1542568797903798e-08</v>
+        <v>9.0427455583359283e-08</v>
       </c>
       <c r="BG6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BH6">
-        <v>0.99259031288304866</v>
+        <v>0.9912129466793389</v>
       </c>
       <c r="BI6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BJ6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BK6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BL6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BM6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BN6">
-        <v>6.5575489375173806e-08</v>
+        <v>5.3244238124198596e-07</v>
       </c>
       <c r="BO6">
-        <v>4.6300431809301036e-07</v>
+        <v>1.7285985534639511e-05</v>
       </c>
       <c r="BP6">
-        <v>2.8649790933295803e-10</v>
+        <v>3.0126022492258553e-10</v>
       </c>
       <c r="BQ6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BR6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BS6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BT6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BU6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BV6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BW6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BX6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BY6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="BZ6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="CA6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="CB6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="CC6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="CD6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="CE6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="CF6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="CG6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="CH6">
-        <v>2.220279765064683e-14</v>
+        <v>2.2202738883063168e-14</v>
       </c>
       <c r="CI6">
         <v>59</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="C7">
-        <v>4.7857997559097765e-05</v>
+        <v>1.8912997814502933e-05</v>
       </c>
       <c r="D7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="E7">
-        <v>0.0031033572056190879</v>
+        <v>0.018668650932462099</v>
       </c>
       <c r="F7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="G7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="H7">
-        <v>2.7296101967785217e-07</v>
+        <v>1.3999264247083684e-07</v>
       </c>
       <c r="I7">
-        <v>0.0017762807767483528</v>
+        <v>0.0021859029352108614</v>
       </c>
       <c r="J7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="K7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="L7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="M7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="N7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="O7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="P7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="Q7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="R7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="S7">
-        <v>1.2957912448087487e-11</v>
+        <v>5.3173437455310648e-13</v>
       </c>
       <c r="T7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="U7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="V7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="W7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="X7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="Y7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="Z7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AA7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AB7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AC7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AD7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AE7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AF7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AG7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AH7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AI7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AJ7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AK7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AL7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AM7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AN7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AO7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AP7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AQ7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AR7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AS7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AT7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AU7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AV7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AW7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AX7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AY7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="AZ7">
-        <v>5.8592217805365841e-08</v>
+        <v>9.3166259246709743e-09</v>
       </c>
       <c r="BA7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BB7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BC7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BD7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BE7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BF7">
-        <v>1.4821337122430746e-10</v>
+        <v>6.4902053598362725e-10</v>
       </c>
       <c r="BG7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BH7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BI7">
-        <v>0.9950721510744952</v>
+        <v>0.97912636897926508</v>
       </c>
       <c r="BJ7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BK7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BL7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BM7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BN7">
-        <v>1.3462099944289601e-09</v>
+        <v>1.1241160516762762e-08</v>
       </c>
       <c r="BO7">
-        <v>7.0432633075992046e-11</v>
+        <v>7.0839817845011325e-10</v>
       </c>
       <c r="BP7">
-        <v>1.9812884031008499e-08</v>
+        <v>2.2452249975228523e-09</v>
       </c>
       <c r="BQ7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BR7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BS7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BT7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BU7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BV7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BW7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BX7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BY7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="BZ7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="CA7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="CB7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="CC7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="CD7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="CE7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="CF7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="CG7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="CH7">
-        <v>2.220319215639055e-14</v>
+        <v>2.2202402298419914e-14</v>
       </c>
       <c r="CI7">
         <v>60</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="C8">
-        <v>3.0276797189254116e-06</v>
+        <v>2.4442241001091427e-06</v>
       </c>
       <c r="D8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="E8">
-        <v>0.00014242200607042171</v>
+        <v>2.2253600663159184e-05</v>
       </c>
       <c r="F8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="G8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="H8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="I8">
-        <v>1.6357836593586234e-07</v>
+        <v>2.0359356487409629e-05</v>
       </c>
       <c r="J8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="K8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="L8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="M8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="N8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="O8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="P8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="Q8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="R8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="S8">
-        <v>1.2882208893490889e-05</v>
+        <v>1.7944437885818998e-05</v>
       </c>
       <c r="T8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="U8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="V8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="W8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="X8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="Y8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="Z8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AA8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AB8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AC8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AD8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AE8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AF8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AG8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AH8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AI8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AJ8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AK8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AL8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AM8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AN8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AO8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AP8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AQ8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AR8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AS8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AT8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AU8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AV8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AW8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AX8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AY8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="AZ8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BA8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BB8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BC8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BD8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BE8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BF8">
-        <v>2.2204419107408069e-14</v>
+        <v>1.7818229981376136e-12</v>
       </c>
       <c r="BG8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BH8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BI8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BJ8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BK8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BL8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BM8">
-        <v>0.99984150031208852</v>
+        <v>0.99991441187156593</v>
       </c>
       <c r="BN8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BO8">
-        <v>1.1139241549003899e-09</v>
+        <v>9.5589505082226205e-06</v>
       </c>
       <c r="BP8">
-        <v>3.0992065136135969e-09</v>
+        <v>1.3027555297871859e-05</v>
       </c>
       <c r="BQ8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BR8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BS8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BT8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BU8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BV8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BW8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BX8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BY8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="BZ8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="CA8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="CB8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="CC8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="CD8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="CE8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="CF8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="CG8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="CH8">
-        <v>2.2204419107408069e-14</v>
+        <v>2.2204438140124894e-14</v>
       </c>
       <c r="CI8">
         <v>64</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="C9">
-        <v>1.0068223986189368e-09</v>
+        <v>1.9321428938142449e-10</v>
       </c>
       <c r="D9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="E9">
-        <v>4.077065732074434e-06</v>
+        <v>0.00034202587741153615</v>
       </c>
       <c r="F9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="G9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="H9">
-        <v>0.31263520939870371</v>
+        <v>0.34681871312678259</v>
       </c>
       <c r="I9">
-        <v>0.14468918018962373</v>
+        <v>0.1311671351003614</v>
       </c>
       <c r="J9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="K9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="L9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="M9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="N9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="O9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="P9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="Q9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="R9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="S9">
-        <v>3.7157141211620692e-09</v>
+        <v>1.2117900144996617e-10</v>
       </c>
       <c r="T9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="U9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="V9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="W9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="X9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="Y9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="Z9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AA9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AB9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AC9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AD9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AE9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AF9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AG9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AH9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AI9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AJ9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AK9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AL9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AM9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AN9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AO9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AP9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AQ9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AR9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AS9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AT9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AU9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AV9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AW9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AX9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AY9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="AZ9">
-        <v>2.8575673540566639e-08</v>
+        <v>6.1805026406381809e-08</v>
       </c>
       <c r="BA9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BB9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BC9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BD9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BE9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BF9">
-        <v>7.1317932427700322e-08</v>
+        <v>7.8226917173851912e-07</v>
       </c>
       <c r="BG9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BH9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BI9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BJ9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BK9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BL9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BM9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BN9">
-        <v>0.055033617277743724</v>
+        <v>0.078597760669253697</v>
       </c>
       <c r="BO9">
-        <v>0.48763781140408702</v>
+        <v>0.44307352083553769</v>
       </c>
       <c r="BP9">
-        <v>4.6209182861957451e-11</v>
+        <v>3.8556239500752066e-13</v>
       </c>
       <c r="BQ9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BR9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BS9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BT9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BU9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BV9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BW9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BX9">
-        <v>1.107421860476601e-13</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BY9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="BZ9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="CA9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="CB9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="CC9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="CD9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="CE9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="CF9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="CG9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="CH9">
-        <v>2.2262944850142193e-14</v>
+        <v>2.234914754251822e-14</v>
       </c>
       <c r="CI9">
         <v>66</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.5860947247223287e-08</v>
+        <v>1.7093934533486723e-09</v>
       </c>
       <c r="C10">
-        <v>0.17261240580342593</v>
+        <v>0.029270873124115984</v>
       </c>
       <c r="D10">
-        <v>5.5860947247223287e-08</v>
+        <v>1.7093934533486723e-09</v>
       </c>
       <c r="E10">
-        <v>0.11853623323580559</v>
+        <v>0.1539340060446574</v>
       </c>
       <c r="F10">
-        <v>5.5860947247223684e-08</v>
+        <v>1.7093934533486685e-09</v>
       </c>
       <c r="G10">
-        <v>5.5860947247223506e-08</v>
+        <v>1.7093934533486731e-09</v>
       </c>
       <c r="H10">
-        <v>5.5860947247223506e-08</v>
+        <v>1.7093934533486731e-09</v>
       </c>
       <c r="I10">
-        <v>0.20953619860603656</v>
+        <v>0.15858137156415417</v>
       </c>
       <c r="J10">
-        <v>5.5860947247223506e-08</v>
+        <v>1.7093934533486731e-09</v>
       </c>
       <c r="K10">
-        <v>5.5860947247223261e-08</v>
+        <v>1.7093934533486723e-09</v>
       </c>
       <c r="L10">
-        <v>5.5860947247223261e-08</v>
+        <v>1.7093934533486723e-09</v>
       </c>
       <c r="M10">
-        <v>5.5860947247223261e-08</v>
+        <v>1.7093934533486723e-09</v>
       </c>
       <c r="N10">
-        <v>5.5860947247223261e-08</v>
+        <v>1.7093934533486723e-09</v>
       </c>
       <c r="O10">
-        <v>5.5860947247223261e-08</v>
+        <v>1.7093934533486723e-09</v>
       </c>
       <c r="P10">
-        <v>5.5860947247223261e-08</v>
+        <v>1.7093934533486723e-09</v>
       </c>
       <c r="Q10">
-        <v>5.5860947247223261e-08</v>
+        <v>1.7093934533486723e-09</v>
       </c>
       <c r="R10">
-        <v>5.5860947247223261e-08</v>
+        <v>1.7093934533486723e-09</v>
       </c>
       <c r="S10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="T10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="U10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="V10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="W10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="X10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="Y10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="Z10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="AA10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="AB10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="AC10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="AD10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="AE10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="AF10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="AG10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="AH10">
-        <v>5.5860947247223486e-08</v>
+        <v>1.709393453348675e-09</v>
       </c>
       <c r="AI10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AJ10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AK10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AL10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AM10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AN10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AO10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AP10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AQ10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AR10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AS10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AT10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AU10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AV10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AW10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AX10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AY10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486793e-09</v>
       </c>
       <c r="AZ10">
-        <v>0.0094298053878620908</v>
+        <v>0.00093389864243236334</v>
       </c>
       <c r="BA10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486733e-09</v>
       </c>
       <c r="BB10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486727e-09</v>
       </c>
       <c r="BC10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486727e-09</v>
       </c>
       <c r="BD10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486727e-09</v>
       </c>
       <c r="BE10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486727e-09</v>
       </c>
       <c r="BF10">
-        <v>0.18914763619033598</v>
+        <v>0.21039401435315608</v>
       </c>
       <c r="BG10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486727e-09</v>
       </c>
       <c r="BH10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486727e-09</v>
       </c>
       <c r="BI10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486727e-09</v>
       </c>
       <c r="BJ10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486727e-09</v>
       </c>
       <c r="BK10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486727e-09</v>
       </c>
       <c r="BL10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486727e-09</v>
       </c>
       <c r="BM10">
-        <v>5.5860947247223373e-08</v>
+        <v>1.7093934533486727e-09</v>
       </c>
       <c r="BN10">
-        <v>0.00041091624320369638</v>
+        <v>8.8402285453002674e-06</v>
       </c>
       <c r="BO10">
-        <v>0.04825543339940274</v>
+        <v>0.00033193460203857653</v>
       </c>
       <c r="BP10">
-        <v>0.25206706984098676</v>
+        <v>0.44654492981760158</v>
       </c>
       <c r="BQ10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="BR10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="BS10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="BT10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="BU10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="BV10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="BW10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="BX10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="BY10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="BZ10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="CA10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="CB10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="CC10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="CD10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="CE10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="CF10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="CG10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="CH10">
-        <v>5.58609472472234e-08</v>
+        <v>1.7093934533486772e-09</v>
       </c>
       <c r="CI10">
         <v>67</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.97905467238498323</v>
+        <v>0.97228327036008733</v>
       </c>
       <c r="C11">
-        <v>0.014406831347324463</v>
+        <v>0.022526869115588849</v>
       </c>
       <c r="D11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="E11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="F11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="G11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="H11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="I11">
-        <v>7.0626845605799234e-05</v>
+        <v>1.8628428311170827e-05</v>
       </c>
       <c r="J11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="K11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="L11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="M11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="N11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="O11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="P11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="Q11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="R11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="S11">
-        <v>2.8474369366716253e-07</v>
+        <v>2.2827042764148421e-08</v>
       </c>
       <c r="T11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="U11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="V11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="W11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="X11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="Y11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="Z11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AA11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AB11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AC11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AD11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AE11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AF11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AG11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AH11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AI11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AJ11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AK11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AL11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AM11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AN11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AO11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AP11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AQ11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AR11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AS11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AT11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AU11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AV11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AW11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AX11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AY11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="AZ11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BA11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BB11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BC11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BD11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BE11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BF11">
-        <v>0.0064675316182200284</v>
+        <v>0.0051564609338873371</v>
       </c>
       <c r="BG11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BH11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BI11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BJ11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BK11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BL11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BM11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BN11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BO11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BP11">
-        <v>5.305841884715738e-08</v>
+        <v>1.4748333328538016e-05</v>
       </c>
       <c r="BQ11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BR11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BS11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BT11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BU11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BV11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BW11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BX11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BY11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="BZ11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="CA11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="CB11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="CC11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="CD11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="CE11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="CF11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="CG11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="CH11">
-        <v>2.2202856874954899e-14</v>
+        <v>2.2203470787364511e-14</v>
       </c>
       <c r="CI11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>9.0428117520438781e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="C12">
-        <v>3.0310766289380352e-07</v>
+        <v>3.8756242105355894e-08</v>
       </c>
       <c r="D12">
-        <v>9.0428117520438781e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="E12">
-        <v>0.020690988999706967</v>
+        <v>0.014306394867812719</v>
       </c>
       <c r="F12">
-        <v>9.0428117520438857e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="G12">
-        <v>9.0428117520438781e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="H12">
-        <v>0.0016099967266260679</v>
+        <v>0.00027000633618756053</v>
       </c>
       <c r="I12">
-        <v>0.016749860543521435</v>
+        <v>0.0025222382504095056</v>
       </c>
       <c r="J12">
-        <v>9.0428117520438844e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="K12">
-        <v>9.0428117520438995e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="L12">
-        <v>9.0428117520438995e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="M12">
-        <v>9.0428117520438995e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="N12">
-        <v>9.0428117520438995e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="O12">
-        <v>9.0428117520438995e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="P12">
-        <v>9.0428117520438995e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="Q12">
-        <v>9.0428117520438995e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="R12">
-        <v>9.0428117520438995e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="S12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="T12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="U12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="V12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="W12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="X12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="Y12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="Z12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AA12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AB12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AC12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AD12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AE12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AF12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AG12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AH12">
-        <v>9.0428117520439021e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AI12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AJ12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AK12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AL12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AM12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AN12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AO12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AP12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AQ12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AR12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AS12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AT12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AU12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AV12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AW12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AX12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AY12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="AZ12">
-        <v>2.8749908122555756e-05</v>
+        <v>3.6219485305195797e-05</v>
       </c>
       <c r="BA12">
-        <v>9.0428117520438604e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BB12">
-        <v>9.0428117520438781e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BC12">
-        <v>0.031480316655171141</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BD12">
-        <v>9.0428117520438819e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BE12">
-        <v>9.0428117520438819e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BF12">
-        <v>0.011368972808916918</v>
+        <v>0.0024018416639926469</v>
       </c>
       <c r="BG12">
-        <v>9.0428117520438781e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BH12">
-        <v>9.0428117520438781e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BI12">
-        <v>9.0428117520438781e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BJ12">
-        <v>9.0428117520438781e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BK12">
-        <v>9.0428117520438781e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BL12">
-        <v>9.0428117520438781e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BM12">
-        <v>9.0428117520438781e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BN12">
-        <v>0.00011894447671970845</v>
+        <v>7.7189669670424544e-06</v>
       </c>
       <c r="BO12">
-        <v>0.9179518487729611</v>
+        <v>0.98045554051378647</v>
       </c>
       <c r="BP12">
-        <v>1.6037746614884387e-08</v>
+        <v>8.413143190084016e-10</v>
       </c>
       <c r="BQ12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BR12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BS12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BT12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BU12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BV12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BW12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BX12">
-        <v>1.9561539824489812e-09</v>
+        <v>3.1631701476011446e-10</v>
       </c>
       <c r="BY12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="BZ12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="CA12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="CB12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="CC12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="CD12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="CE12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="CF12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="CG12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="CH12">
-        <v>9.0428117520428986e-14</v>
+        <v>2.2202874454371183e-14</v>
       </c>
       <c r="CI12">
         <v>66</v>
